--- a/biology/Botanique/Château_Grand-Puy-Lacoste/Château_Grand-Puy-Lacoste.xlsx
+++ b/biology/Botanique/Château_Grand-Puy-Lacoste/Château_Grand-Puy-Lacoste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Grand-Puy-Lacoste</t>
+          <t>Château_Grand-Puy-Lacoste</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le château Grand-Puy-Lacoste, est un domaine viticole de 55 hectares situé à Pauillac en Gironde. Situé en AOC pauillac, il est classé cinquième grand cru dans la classification officielle des vins de Bordeaux de 1855.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Grand-Puy-Lacoste</t>
+          <t>Château_Grand-Puy-Lacoste</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Grand-Puy-Lacoste</t>
+          <t>Château_Grand-Puy-Lacoste</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,7 +552,9 @@
           <t>Vignoble</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vignes du Château s'enracinent dans des croupes graveleuses günziennes sur un sous-sol calcaire. L'encépagement du domaine est constitué à 70 % de cabernet sauvignon, à 25 % de merlot et à 5 % cabernet franc.
 </t>
@@ -551,7 +567,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Grand-Puy-Lacoste</t>
+          <t>Château_Grand-Puy-Lacoste</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -569,7 +585,9 @@
           <t>Vins</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Après la fermentation en cuve en inox, le vin mûrît durant 16 à 18 mois dans les barriques en chêne, partiellement neufs (45 à 55 % selon l'année).
 Le Château Grand-Puy-Lacoste produit un second vin nommé « Lacoste-Borie ».
